--- a/Data Excel/TestDataUser.xlsx
+++ b/Data Excel/TestDataUser.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,36 +368,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin@grupokaizen.net</t>
+          <t>automated.test@grupokaizen.net</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xzigr4SmWZ9Mgtz4Jfx/9Q==</t>
+          <t>aeHFOx8jV/A=</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>admin@grupokaizen.net</t>
+          <t>automated.test@grupokaizen.net</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xzigr4SmWZ9Mgtz4Jfx/9Q==</t>
+          <t>aeHFOx8jV/A=</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>admin@grupokaizen.net</t>
+          <t>automated.test@grupokaizen.net</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>xzigr4SmWZ9Mgtz4Jfx/9Q==</t>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
         </is>
       </c>
     </row>
